--- a/TCCB/TCCB/Utils/Excel/ds-hoanthanh.xlsx
+++ b/TCCB/TCCB/Utils/Excel/ds-hoanthanh.xlsx
@@ -5,14 +5,14 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="6 22 2018 12 00 00 AM" sheetId="1" r:id="rId1"/>
+    <sheet name="6 5 2018 12 00 00 AM" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>DANH SÁCH ỨNG VIÊN HOÀN THÀNH HỒ SƠ</t>
   </si>
@@ -20,7 +20,7 @@
     <t>SỞ GIÁO DỤC VÀ ĐÀO TẠO TP.HỒ CHÍ MINH</t>
   </si>
   <si>
-    <t>Tính tới ngày 22/6/2018</t>
+    <t>Tính tới ngày 5/6/2018</t>
   </si>
   <si>
     <t>STT</t>
@@ -210,24 +210,6 @@
   </si>
   <si>
     <t>28/17A,Phường Bến Nghé, Quận 1, Thành Phố Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>Trương Thị</t>
-  </si>
-  <si>
-    <t>Hạnh</t>
-  </si>
-  <si>
-    <t>23/7/2018</t>
-  </si>
-  <si>
-    <t>12345678910</t>
-  </si>
-  <si>
-    <t>abc,Phường Bến Nghé, Quận 1</t>
-  </si>
-  <si>
-    <t>abc,Phường Bến Nghé, Quận 1, Thành Phố Hồ Chí Minh</t>
   </si>
 </sst>
 </file>
@@ -303,7 +285,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:AB10"/>
+  <dimension ref="A2:AB9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -516,6 +498,9 @@
       <c r="Q7" s="0">
         <v>6.72</v>
       </c>
+      <c r="R7" s="0">
+        <v>4.3</v>
+      </c>
       <c r="S7" s="0" t="s">
         <v>45</v>
       </c>
@@ -686,89 +671,6 @@
         <v>50</v>
       </c>
       <c r="AB9" s="0" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>4</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="M10" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="N10" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="O10" s="0">
-        <v>2018</v>
-      </c>
-      <c r="P10" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q10" s="0">
-        <v>7</v>
-      </c>
-      <c r="S10" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="T10" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="U10" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="V10" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="W10" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="X10" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y10" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z10" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA10" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB10" s="0" t="s">
         <v>50</v>
       </c>
     </row>
